--- a/Arizona/Overlays/AZov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Arizona/Overlays/AZov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65379578-05C3-430A-B8B2-06F647BF2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A5AFA1-6693-45CB-9528-D4677F6A65FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" firstSheet="1" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>nvarchar(250)</t>
   </si>
   <si>
-    <t>AZre_O1</t>
-  </si>
-  <si>
     <t>UTwr_O1</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>nvarchar(200)</t>
   </si>
   <si>
-    <t>AZre_RU + OBJECTID</t>
-  </si>
-  <si>
     <t>TXag_RU12</t>
   </si>
   <si>
@@ -400,9 +394,6 @@
   </si>
   <si>
     <t>RegulatoryOverlayUUID</t>
-  </si>
-  <si>
-    <t>AZre_RO + OBJECTID</t>
   </si>
   <si>
     <t>NMre_ROSCWR15</t>
@@ -583,6 +574,15 @@
   </si>
   <si>
     <t>https://www.amwua.org/blog/the-1980-groundwater-management-act-a-monumental-piece-of-legislation-that-is-still-relevant-40-years-later, https://www.azleg.gov/viewdocument/?docName=https://www.azleg.gov/ars/45/00411-03.htm, https://new.azwater.gov/ama/douglas-ama, https://new.azwater.gov/ama/harquahala-ina, https://www.azleg.gov/viewdocument/?docName=https://www.azleg.gov/ars/45/00431.htm</t>
+  </si>
+  <si>
+    <t>AZov_O1</t>
+  </si>
+  <si>
+    <t>AZov_RU + OBJECTID</t>
+  </si>
+  <si>
+    <t>AZov_RO + OBJECTID</t>
   </si>
 </sst>
 </file>
@@ -1302,9 +1302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1342,7 +1342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1448,7 +1448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1590,7 +1590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1600,9 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1911,7 +1911,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2017,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>28</v>
@@ -2029,15 +2029,15 @@
         <v>28</v>
       </c>
       <c r="J3" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="74" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -2052,7 +2052,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>28</v>
@@ -2064,15 +2064,15 @@
         <v>28</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>43</v>
@@ -2087,7 +2087,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>28</v>
@@ -2099,15 +2099,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="74" t="s">
         <v>53</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>43</v>
@@ -2122,7 +2122,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>28</v>
@@ -2134,15 +2134,15 @@
         <v>28</v>
       </c>
       <c r="J6" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="74" t="s">
         <v>57</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>43</v>
@@ -2169,15 +2169,15 @@
         <v>28</v>
       </c>
       <c r="J7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="74" t="s">
         <v>60</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>43</v>
@@ -2192,7 +2192,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -2204,15 +2204,15 @@
         <v>28</v>
       </c>
       <c r="J8" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="74" t="s">
         <v>64</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>43</v>
@@ -2227,7 +2227,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>28</v>
@@ -2239,15 +2239,15 @@
         <v>28</v>
       </c>
       <c r="J9" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="74" t="s">
         <v>68</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>43</v>
@@ -2262,7 +2262,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>28</v>
@@ -2274,18 +2274,18 @@
         <v>28</v>
       </c>
       <c r="J10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>72</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>28</v>
@@ -2294,7 +2294,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>4</v>
@@ -2312,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -2364,7 +2364,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
@@ -2450,15 +2450,15 @@
         <v>28</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="59"/>
@@ -2478,20 +2478,20 @@
         <v>28</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2514,17 +2514,17 @@
         <v>4326</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2539,29 +2539,29 @@
         <v>28</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -2576,29 +2576,29 @@
         <v>28</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="84" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2613,10 +2613,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="84" t="s">
         <v>28</v>
@@ -2625,17 +2625,17 @@
         <v>48001</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
@@ -2679,10 +2679,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>28</v>
@@ -2694,10 +2694,10 @@
         <v>28</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -2709,7 +2709,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="14"/>
       <c r="F10" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="64"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>31</v>
@@ -2748,20 +2748,20 @@
         <v>28</v>
       </c>
       <c r="J11" s="88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>28</v>
@@ -2770,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>4</v>
@@ -2785,10 +2785,10 @@
         <v>28</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -2859,9 +2859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>27</v>
@@ -2937,15 +2937,15 @@
       <c r="I2" s="33"/>
       <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2957,7 +2957,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -2965,18 +2965,18 @@
         <v>28</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -3000,18 +3000,18 @@
         <v>28</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -3023,7 +3023,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>28</v>
@@ -3035,18 +3035,18 @@
         <v>28</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>28</v>
@@ -3061,27 +3061,27 @@
         <v>28</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -3096,27 +3096,27 @@
         <v>28</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -3128,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -3140,18 +3140,18 @@
         <v>28</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>28</v>
@@ -3176,15 +3176,15 @@
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
@@ -3208,15 +3208,15 @@
         <v>28</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -3234,10 +3234,10 @@
         <v>28</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>28</v>
@@ -3246,12 +3246,12 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -3279,15 +3279,15 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>28</v>
@@ -3296,10 +3296,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>28</v>
@@ -3311,10 +3311,10 @@
         <v>28</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="19"/>
       <c r="F14" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="25"/>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>28</v>
@@ -3344,10 +3344,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>28</v>
@@ -3360,10 +3360,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3408,7 +3408,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>27</v>
@@ -3484,12 +3484,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>27</v>
@@ -3501,7 +3501,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="52">
         <v>45140</v>
@@ -3519,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3536,10 +3536,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>28</v>
@@ -3551,15 +3551,15 @@
         <v>28</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>27</v>
@@ -3571,10 +3571,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>28</v>
@@ -3586,15 +3586,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>27</v>
@@ -3606,10 +3606,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>28</v>
@@ -3621,10 +3621,10 @@
         <v>28</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3763,7 +3763,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>27</v>
@@ -3780,12 +3780,12 @@
       <c r="H2" s="101"/>
       <c r="I2" s="101"/>
       <c r="J2" s="102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>27</v>
@@ -3794,7 +3794,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
@@ -3806,12 +3806,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>27</v>
@@ -3820,7 +3820,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="107"/>
       <c r="F4" s="105"/>
@@ -3832,7 +3832,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3892,15 +3892,15 @@
   <sheetData>
     <row r="1" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2" s="35">
         <v>44896</v>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="3" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="35">
         <v>29384</v>
@@ -20298,7 +20298,7 @@
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="35">
         <v>34516</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="35">
         <v>29384</v>
@@ -28505,7 +28505,7 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" s="35">
         <v>29384</v>
@@ -28513,7 +28513,7 @@
     </row>
     <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="35">
         <v>29384</v>
@@ -28521,7 +28521,7 @@
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="35">
         <v>27379</v>
@@ -28529,7 +28529,7 @@
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9">
         <v>1981</v>
@@ -28537,10 +28537,10 @@
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
